--- a/banque_pti.xlsx
+++ b/banque_pti.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daved\Desktop\PTI EXPERT LONGUE DUREE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8779EF6-F217-4ECD-8BE7-DD16870B1312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D01D08-B587-44B3-B0D1-2D7533E78963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1727" uniqueCount="449">
   <si>
     <t>ID_UNIQUE</t>
   </si>
@@ -1351,16 +1351,44 @@
   </si>
   <si>
     <t>Utiliser le protocole de détresse PRN pour confort, voir FADM, aviser le médecin après 1er dose</t>
+  </si>
+  <si>
+    <t>--- SECTION: URINAIRE ---</t>
+  </si>
+  <si>
+    <t>sond_uri</t>
+  </si>
+  <si>
+    <t>urinaire</t>
+  </si>
+  <si>
+    <t>Sonde urinaire</t>
+  </si>
+  <si>
+    <t>Porteur d'une sonde à demeure</t>
+  </si>
+  <si>
+    <t>INF/AUX</t>
+  </si>
+  <si>
+    <t>Sonde urinaire silicone # __ installée le (date). Prochain changement :</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1386,8 +1414,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1668,10 +1697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F355"/>
+  <dimension ref="A1:F359"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C320" workbookViewId="0">
-      <selection activeCell="F346" sqref="F346"/>
+    <sheetView tabSelected="1" topLeftCell="D332" workbookViewId="0">
+      <selection activeCell="F359" sqref="F359"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7529,7 +7558,33 @@
         <v>438</v>
       </c>
     </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B357" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>443</v>
+      </c>
+      <c r="B359" t="s">
+        <v>444</v>
+      </c>
+      <c r="C359" t="s">
+        <v>445</v>
+      </c>
+      <c r="D359" t="s">
+        <v>446</v>
+      </c>
+      <c r="E359" t="s">
+        <v>447</v>
+      </c>
+      <c r="F359" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/banque_pti.xlsx
+++ b/banque_pti.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daved\Desktop\PTI EXPERT LONGUE DUREE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D01D08-B587-44B3-B0D1-2D7533E78963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57C9559-156B-43EE-9E78-09DF95720DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1727" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1726" uniqueCount="447">
   <si>
     <t>ID_UNIQUE</t>
   </si>
@@ -1353,9 +1353,6 @@
     <t>Utiliser le protocole de détresse PRN pour confort, voir FADM, aviser le médecin après 1er dose</t>
   </si>
   <si>
-    <t>--- SECTION: URINAIRE ---</t>
-  </si>
-  <si>
     <t>sond_uri</t>
   </si>
   <si>
@@ -1366,9 +1363,6 @@
   </si>
   <si>
     <t>Porteur d'une sonde à demeure</t>
-  </si>
-  <si>
-    <t>INF/AUX</t>
   </si>
   <si>
     <t>Sonde urinaire silicone # __ installée le (date). Prochain changement :</t>
@@ -1697,10 +1691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F359"/>
+  <dimension ref="A1:F360"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D332" workbookViewId="0">
-      <selection activeCell="F359" sqref="F359"/>
+    <sheetView tabSelected="1" topLeftCell="A350" workbookViewId="0">
+      <selection activeCell="D364" sqref="D364"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5680,29 +5674,29 @@
         <v>298</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B240" t="s">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>442</v>
+      </c>
+      <c r="B239" t="s">
+        <v>443</v>
+      </c>
+      <c r="C239" t="s">
+        <v>444</v>
+      </c>
+      <c r="D239" t="s">
+        <v>445</v>
+      </c>
+      <c r="E239" t="s">
+        <v>19</v>
+      </c>
+      <c r="F239" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B241" t="s">
         <v>299</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
-        <v>300</v>
-      </c>
-      <c r="B242" t="s">
-        <v>301</v>
-      </c>
-      <c r="C242" t="s">
-        <v>302</v>
-      </c>
-      <c r="D242" t="s">
-        <v>303</v>
-      </c>
-      <c r="E242" t="s">
-        <v>11</v>
-      </c>
-      <c r="F242" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
@@ -5715,11 +5709,14 @@
       <c r="C243" t="s">
         <v>302</v>
       </c>
+      <c r="D243" t="s">
+        <v>303</v>
+      </c>
       <c r="E243" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F243" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
@@ -5733,10 +5730,10 @@
         <v>302</v>
       </c>
       <c r="E244" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F244" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
@@ -5753,7 +5750,7 @@
         <v>11</v>
       </c>
       <c r="F245" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
@@ -5770,7 +5767,7 @@
         <v>11</v>
       </c>
       <c r="F246" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
@@ -5787,7 +5784,7 @@
         <v>11</v>
       </c>
       <c r="F247" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
@@ -5801,10 +5798,10 @@
         <v>302</v>
       </c>
       <c r="E248" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F248" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
@@ -5818,10 +5815,10 @@
         <v>302</v>
       </c>
       <c r="E249" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F249" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
@@ -5835,10 +5832,10 @@
         <v>302</v>
       </c>
       <c r="E250" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F250" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
@@ -5852,10 +5849,10 @@
         <v>302</v>
       </c>
       <c r="E251" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F251" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
@@ -5869,10 +5866,10 @@
         <v>302</v>
       </c>
       <c r="E252" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F252" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
@@ -5886,30 +5883,27 @@
         <v>302</v>
       </c>
       <c r="E253" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F253" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="B254" t="s">
         <v>301</v>
       </c>
       <c r="C254" t="s">
-        <v>317</v>
-      </c>
-      <c r="D254" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="E254" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F254" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
@@ -5922,11 +5916,14 @@
       <c r="C255" t="s">
         <v>317</v>
       </c>
+      <c r="D255" t="s">
+        <v>318</v>
+      </c>
       <c r="E255" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F255" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
@@ -5943,7 +5940,7 @@
         <v>11</v>
       </c>
       <c r="F256" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
@@ -5957,10 +5954,10 @@
         <v>317</v>
       </c>
       <c r="E257" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F257" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
@@ -5977,7 +5974,7 @@
         <v>19</v>
       </c>
       <c r="F258" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
@@ -5991,10 +5988,10 @@
         <v>317</v>
       </c>
       <c r="E259" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F259" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
@@ -6011,7 +6008,7 @@
         <v>11</v>
       </c>
       <c r="F260" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
@@ -6025,10 +6022,10 @@
         <v>317</v>
       </c>
       <c r="E261" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F261" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
@@ -6042,10 +6039,10 @@
         <v>317</v>
       </c>
       <c r="E262" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F262" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
@@ -6062,7 +6059,7 @@
         <v>11</v>
       </c>
       <c r="F263" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
@@ -6076,10 +6073,10 @@
         <v>317</v>
       </c>
       <c r="E264" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F264" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
@@ -6093,30 +6090,27 @@
         <v>317</v>
       </c>
       <c r="E265" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F265" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="B266" t="s">
         <v>301</v>
       </c>
       <c r="C266" t="s">
-        <v>332</v>
-      </c>
-      <c r="D266" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="E266" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F266" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
@@ -6129,11 +6123,14 @@
       <c r="C267" t="s">
         <v>332</v>
       </c>
+      <c r="D267" t="s">
+        <v>333</v>
+      </c>
       <c r="E267" t="s">
         <v>11</v>
       </c>
       <c r="F267" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
@@ -6150,7 +6147,7 @@
         <v>11</v>
       </c>
       <c r="F268" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
@@ -6164,10 +6161,10 @@
         <v>332</v>
       </c>
       <c r="E269" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F269" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
@@ -6181,10 +6178,10 @@
         <v>332</v>
       </c>
       <c r="E270" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F270" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
@@ -6198,10 +6195,10 @@
         <v>332</v>
       </c>
       <c r="E271" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F271" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
@@ -6215,10 +6212,10 @@
         <v>332</v>
       </c>
       <c r="E272" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F272" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
@@ -6232,10 +6229,10 @@
         <v>332</v>
       </c>
       <c r="E273" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F273" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
@@ -6249,10 +6246,10 @@
         <v>332</v>
       </c>
       <c r="E274" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F274" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
@@ -6266,10 +6263,10 @@
         <v>332</v>
       </c>
       <c r="E275" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F275" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
@@ -6283,10 +6280,10 @@
         <v>332</v>
       </c>
       <c r="E276" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F276" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
@@ -6300,30 +6297,27 @@
         <v>332</v>
       </c>
       <c r="E277" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F277" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="B278" t="s">
         <v>301</v>
       </c>
       <c r="C278" t="s">
-        <v>347</v>
-      </c>
-      <c r="D278" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="E278" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F278" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
@@ -6336,11 +6330,14 @@
       <c r="C279" t="s">
         <v>347</v>
       </c>
+      <c r="D279" t="s">
+        <v>348</v>
+      </c>
       <c r="E279" t="s">
         <v>11</v>
       </c>
       <c r="F279" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
@@ -6354,10 +6351,10 @@
         <v>347</v>
       </c>
       <c r="E280" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F280" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
@@ -6371,10 +6368,10 @@
         <v>347</v>
       </c>
       <c r="E281" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F281" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
@@ -6391,7 +6388,7 @@
         <v>11</v>
       </c>
       <c r="F282" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
@@ -6405,10 +6402,10 @@
         <v>347</v>
       </c>
       <c r="E283" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F283" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
@@ -6422,10 +6419,10 @@
         <v>347</v>
       </c>
       <c r="E284" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F284" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
@@ -6439,10 +6436,10 @@
         <v>347</v>
       </c>
       <c r="E285" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F285" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
@@ -6456,10 +6453,10 @@
         <v>347</v>
       </c>
       <c r="E286" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F286" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
@@ -6473,10 +6470,10 @@
         <v>347</v>
       </c>
       <c r="E287" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F287" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
@@ -6490,10 +6487,10 @@
         <v>347</v>
       </c>
       <c r="E288" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F288" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
@@ -6507,30 +6504,27 @@
         <v>347</v>
       </c>
       <c r="E289" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F289" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="B290" t="s">
         <v>301</v>
       </c>
       <c r="C290" t="s">
-        <v>362</v>
-      </c>
-      <c r="D290" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="E290" t="s">
         <v>11</v>
       </c>
       <c r="F290" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
@@ -6543,11 +6537,14 @@
       <c r="C291" t="s">
         <v>362</v>
       </c>
+      <c r="D291" t="s">
+        <v>363</v>
+      </c>
       <c r="E291" t="s">
         <v>11</v>
       </c>
       <c r="F291" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
@@ -6561,10 +6558,10 @@
         <v>362</v>
       </c>
       <c r="E292" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F292" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
@@ -6578,10 +6575,10 @@
         <v>362</v>
       </c>
       <c r="E293" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F293" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
@@ -6598,7 +6595,7 @@
         <v>11</v>
       </c>
       <c r="F294" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
@@ -6612,10 +6609,10 @@
         <v>362</v>
       </c>
       <c r="E295" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F295" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
@@ -6629,10 +6626,10 @@
         <v>362</v>
       </c>
       <c r="E296" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F296" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
@@ -6646,10 +6643,10 @@
         <v>362</v>
       </c>
       <c r="E297" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F297" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
@@ -6663,10 +6660,10 @@
         <v>362</v>
       </c>
       <c r="E298" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F298" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
@@ -6680,10 +6677,10 @@
         <v>362</v>
       </c>
       <c r="E299" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F299" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
@@ -6697,10 +6694,10 @@
         <v>362</v>
       </c>
       <c r="E300" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F300" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
@@ -6714,35 +6711,32 @@
         <v>362</v>
       </c>
       <c r="E301" t="s">
+        <v>17</v>
+      </c>
+      <c r="F301" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>361</v>
+      </c>
+      <c r="B302" t="s">
+        <v>301</v>
+      </c>
+      <c r="C302" t="s">
+        <v>362</v>
+      </c>
+      <c r="E302" t="s">
         <v>21</v>
       </c>
-      <c r="F301" t="s">
+      <c r="F302" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B303" t="s">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B304" t="s">
         <v>376</v>
-      </c>
-    </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A305" t="s">
-        <v>377</v>
-      </c>
-      <c r="B305" t="s">
-        <v>378</v>
-      </c>
-      <c r="C305" t="s">
-        <v>379</v>
-      </c>
-      <c r="D305" t="s">
-        <v>380</v>
-      </c>
-      <c r="E305" t="s">
-        <v>19</v>
-      </c>
-      <c r="F305" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
@@ -6755,11 +6749,14 @@
       <c r="C306" t="s">
         <v>379</v>
       </c>
+      <c r="D306" t="s">
+        <v>380</v>
+      </c>
       <c r="E306" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F306" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
@@ -6776,7 +6773,7 @@
         <v>11</v>
       </c>
       <c r="F307" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
@@ -6790,10 +6787,10 @@
         <v>379</v>
       </c>
       <c r="E308" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F308" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
@@ -6807,10 +6804,10 @@
         <v>379</v>
       </c>
       <c r="E309" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F309" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
@@ -6824,10 +6821,10 @@
         <v>379</v>
       </c>
       <c r="E310" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F310" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
@@ -6844,7 +6841,7 @@
         <v>19</v>
       </c>
       <c r="F311" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
@@ -6858,10 +6855,10 @@
         <v>379</v>
       </c>
       <c r="E312" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F312" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
@@ -6875,10 +6872,10 @@
         <v>379</v>
       </c>
       <c r="E313" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F313" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
@@ -6892,10 +6889,10 @@
         <v>379</v>
       </c>
       <c r="E314" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F314" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
@@ -6909,10 +6906,10 @@
         <v>379</v>
       </c>
       <c r="E315" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F315" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
@@ -6926,30 +6923,27 @@
         <v>379</v>
       </c>
       <c r="E316" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F316" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="B317" t="s">
         <v>378</v>
       </c>
       <c r="C317" t="s">
-        <v>394</v>
-      </c>
-      <c r="D317" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="E317" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F317" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
@@ -6962,11 +6956,14 @@
       <c r="C318" t="s">
         <v>394</v>
       </c>
+      <c r="D318" t="s">
+        <v>395</v>
+      </c>
       <c r="E318" t="s">
         <v>21</v>
       </c>
       <c r="F318" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
@@ -6980,10 +6977,10 @@
         <v>394</v>
       </c>
       <c r="E319" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F319" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
@@ -7000,7 +6997,7 @@
         <v>11</v>
       </c>
       <c r="F320" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
@@ -7014,10 +7011,10 @@
         <v>394</v>
       </c>
       <c r="E321" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F321" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
@@ -7031,10 +7028,10 @@
         <v>394</v>
       </c>
       <c r="E322" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F322" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
@@ -7048,10 +7045,10 @@
         <v>394</v>
       </c>
       <c r="E323" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F323" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
@@ -7065,10 +7062,10 @@
         <v>394</v>
       </c>
       <c r="E324" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F324" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
@@ -7082,10 +7079,10 @@
         <v>394</v>
       </c>
       <c r="E325" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F325" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
@@ -7099,10 +7096,10 @@
         <v>394</v>
       </c>
       <c r="E326" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F326" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
@@ -7119,7 +7116,7 @@
         <v>11</v>
       </c>
       <c r="F327" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
@@ -7133,30 +7130,27 @@
         <v>394</v>
       </c>
       <c r="E328" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F328" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="B329" t="s">
         <v>378</v>
       </c>
       <c r="C329" t="s">
-        <v>409</v>
-      </c>
-      <c r="D329" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="E329" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F329" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
@@ -7169,11 +7163,14 @@
       <c r="C330" t="s">
         <v>409</v>
       </c>
+      <c r="D330" t="s">
+        <v>410</v>
+      </c>
       <c r="E330" t="s">
         <v>21</v>
       </c>
       <c r="F330" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
@@ -7187,10 +7184,10 @@
         <v>409</v>
       </c>
       <c r="E331" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F331" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
@@ -7204,10 +7201,10 @@
         <v>409</v>
       </c>
       <c r="E332" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F332" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
@@ -7221,10 +7218,10 @@
         <v>409</v>
       </c>
       <c r="E333" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F333" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
@@ -7238,10 +7235,10 @@
         <v>409</v>
       </c>
       <c r="E334" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F334" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
@@ -7255,10 +7252,10 @@
         <v>409</v>
       </c>
       <c r="E335" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F335" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
@@ -7272,10 +7269,10 @@
         <v>409</v>
       </c>
       <c r="E336" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F336" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.25">
@@ -7289,10 +7286,10 @@
         <v>409</v>
       </c>
       <c r="E337" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F337" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.25">
@@ -7306,10 +7303,10 @@
         <v>409</v>
       </c>
       <c r="E338" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F338" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.25">
@@ -7323,10 +7320,10 @@
         <v>409</v>
       </c>
       <c r="E339" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F339" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.25">
@@ -7340,35 +7337,32 @@
         <v>409</v>
       </c>
       <c r="E340" t="s">
+        <v>19</v>
+      </c>
+      <c r="F340" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>408</v>
+      </c>
+      <c r="B341" t="s">
+        <v>378</v>
+      </c>
+      <c r="C341" t="s">
+        <v>409</v>
+      </c>
+      <c r="E341" t="s">
         <v>17</v>
       </c>
-      <c r="F340" t="s">
+      <c r="F341" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B342" t="s">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B343" t="s">
         <v>423</v>
-      </c>
-    </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A344" t="s">
-        <v>424</v>
-      </c>
-      <c r="B344" t="s">
-        <v>425</v>
-      </c>
-      <c r="C344" t="s">
-        <v>426</v>
-      </c>
-      <c r="D344" t="s">
-        <v>427</v>
-      </c>
-      <c r="E344" t="s">
-        <v>19</v>
-      </c>
-      <c r="F344" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
@@ -7381,11 +7375,14 @@
       <c r="C345" t="s">
         <v>426</v>
       </c>
+      <c r="D345" t="s">
+        <v>427</v>
+      </c>
       <c r="E345" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F345" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
@@ -7402,7 +7399,7 @@
         <v>11</v>
       </c>
       <c r="F346" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
@@ -7416,10 +7413,10 @@
         <v>426</v>
       </c>
       <c r="E347" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F347" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.25">
@@ -7433,10 +7430,10 @@
         <v>426</v>
       </c>
       <c r="E348" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F348" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.25">
@@ -7450,10 +7447,10 @@
         <v>426</v>
       </c>
       <c r="E349" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F349" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.25">
@@ -7467,10 +7464,10 @@
         <v>426</v>
       </c>
       <c r="E350" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F350" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
@@ -7484,10 +7481,10 @@
         <v>426</v>
       </c>
       <c r="E351" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F351" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.25">
@@ -7504,7 +7501,7 @@
         <v>11</v>
       </c>
       <c r="F352" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.25">
@@ -7518,10 +7515,10 @@
         <v>426</v>
       </c>
       <c r="E353" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F353" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.25">
@@ -7535,10 +7532,10 @@
         <v>426</v>
       </c>
       <c r="E354" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F354" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.25">
@@ -7555,33 +7552,28 @@
         <v>19</v>
       </c>
       <c r="F355" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>424</v>
+      </c>
+      <c r="B356" t="s">
+        <v>425</v>
+      </c>
+      <c r="C356" t="s">
+        <v>426</v>
+      </c>
+      <c r="E356" t="s">
+        <v>19</v>
+      </c>
+      <c r="F356" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B357" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A359" t="s">
-        <v>443</v>
-      </c>
-      <c r="B359" t="s">
-        <v>444</v>
-      </c>
-      <c r="C359" t="s">
-        <v>445</v>
-      </c>
-      <c r="D359" t="s">
-        <v>446</v>
-      </c>
-      <c r="E359" t="s">
-        <v>447</v>
-      </c>
-      <c r="F359" s="1" t="s">
-        <v>448</v>
-      </c>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F360" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/banque_pti.xlsx
+++ b/banque_pti.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daved\Desktop\PTI EXPERT LONGUE DUREE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57C9559-156B-43EE-9E78-09DF95720DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7036774-1F20-4496-ABDB-EEC9618AF811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1726" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1726" uniqueCount="446">
   <si>
     <t>ID_UNIQUE</t>
   </si>
@@ -1354,9 +1354,6 @@
   </si>
   <si>
     <t>sond_uri</t>
-  </si>
-  <si>
-    <t>urinaire</t>
   </si>
   <si>
     <t>Sonde urinaire</t>
@@ -1693,8 +1690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F360"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A350" workbookViewId="0">
-      <selection activeCell="D364" sqref="D364"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C239" sqref="C239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5679,19 +5676,19 @@
         <v>442</v>
       </c>
       <c r="B239" t="s">
+        <v>164</v>
+      </c>
+      <c r="C239" t="s">
         <v>443</v>
       </c>
-      <c r="C239" t="s">
+      <c r="D239" t="s">
         <v>444</v>
       </c>
-      <c r="D239" t="s">
+      <c r="E239" t="s">
+        <v>19</v>
+      </c>
+      <c r="F239" s="1" t="s">
         <v>445</v>
-      </c>
-      <c r="E239" t="s">
-        <v>19</v>
-      </c>
-      <c r="F239" s="1" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">

--- a/banque_pti.xlsx
+++ b/banque_pti.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daved\Desktop\PTI EXPERT LONGUE DUREE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7036774-1F20-4496-ABDB-EEC9618AF811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D948763-3A4B-47AC-B25A-CBF35285B7EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1726" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1731" uniqueCount="448">
   <si>
     <t>ID_UNIQUE</t>
   </si>
@@ -1363,6 +1363,12 @@
   </si>
   <si>
     <t>Sonde urinaire silicone # __ installée le (date). Prochain changement :</t>
+  </si>
+  <si>
+    <t>Irriguer la sonde avec (X) ml d’H2O stérile (fréquence)</t>
+  </si>
+  <si>
+    <t>INF/AUX</t>
   </si>
 </sst>
 </file>
@@ -1688,10 +1694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F360"/>
+  <dimension ref="A1:F361"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C239" sqref="C239"/>
+    <sheetView tabSelected="1" topLeftCell="A230" workbookViewId="0">
+      <selection activeCell="C241" sqref="C241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5685,35 +5691,32 @@
         <v>444</v>
       </c>
       <c r="E239" t="s">
-        <v>19</v>
+        <v>447</v>
       </c>
       <c r="F239" s="1" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B241" t="s">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>442</v>
+      </c>
+      <c r="B240" t="s">
+        <v>164</v>
+      </c>
+      <c r="C240" t="s">
+        <v>443</v>
+      </c>
+      <c r="E240" t="s">
+        <v>447</v>
+      </c>
+      <c r="F240" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B242" t="s">
         <v>299</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
-        <v>300</v>
-      </c>
-      <c r="B243" t="s">
-        <v>301</v>
-      </c>
-      <c r="C243" t="s">
-        <v>302</v>
-      </c>
-      <c r="D243" t="s">
-        <v>303</v>
-      </c>
-      <c r="E243" t="s">
-        <v>11</v>
-      </c>
-      <c r="F243" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
@@ -5726,11 +5729,14 @@
       <c r="C244" t="s">
         <v>302</v>
       </c>
+      <c r="D244" t="s">
+        <v>303</v>
+      </c>
       <c r="E244" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F244" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
@@ -5744,10 +5750,10 @@
         <v>302</v>
       </c>
       <c r="E245" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F245" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
@@ -5764,7 +5770,7 @@
         <v>11</v>
       </c>
       <c r="F246" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
@@ -5781,7 +5787,7 @@
         <v>11</v>
       </c>
       <c r="F247" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
@@ -5798,7 +5804,7 @@
         <v>11</v>
       </c>
       <c r="F248" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
@@ -5812,10 +5818,10 @@
         <v>302</v>
       </c>
       <c r="E249" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F249" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
@@ -5829,10 +5835,10 @@
         <v>302</v>
       </c>
       <c r="E250" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F250" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
@@ -5846,10 +5852,10 @@
         <v>302</v>
       </c>
       <c r="E251" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F251" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
@@ -5863,10 +5869,10 @@
         <v>302</v>
       </c>
       <c r="E252" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F252" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
@@ -5880,10 +5886,10 @@
         <v>302</v>
       </c>
       <c r="E253" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F253" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
@@ -5897,30 +5903,27 @@
         <v>302</v>
       </c>
       <c r="E254" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F254" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="B255" t="s">
         <v>301</v>
       </c>
       <c r="C255" t="s">
-        <v>317</v>
-      </c>
-      <c r="D255" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="E255" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F255" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
@@ -5933,11 +5936,14 @@
       <c r="C256" t="s">
         <v>317</v>
       </c>
+      <c r="D256" t="s">
+        <v>318</v>
+      </c>
       <c r="E256" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F256" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
@@ -5954,7 +5960,7 @@
         <v>11</v>
       </c>
       <c r="F257" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
@@ -5968,10 +5974,10 @@
         <v>317</v>
       </c>
       <c r="E258" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F258" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
@@ -5988,7 +5994,7 @@
         <v>19</v>
       </c>
       <c r="F259" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
@@ -6002,10 +6008,10 @@
         <v>317</v>
       </c>
       <c r="E260" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F260" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
@@ -6022,7 +6028,7 @@
         <v>11</v>
       </c>
       <c r="F261" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
@@ -6036,10 +6042,10 @@
         <v>317</v>
       </c>
       <c r="E262" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F262" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
@@ -6053,10 +6059,10 @@
         <v>317</v>
       </c>
       <c r="E263" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F263" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
@@ -6073,7 +6079,7 @@
         <v>11</v>
       </c>
       <c r="F264" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
@@ -6087,10 +6093,10 @@
         <v>317</v>
       </c>
       <c r="E265" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F265" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
@@ -6104,30 +6110,27 @@
         <v>317</v>
       </c>
       <c r="E266" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F266" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="B267" t="s">
         <v>301</v>
       </c>
       <c r="C267" t="s">
-        <v>332</v>
-      </c>
-      <c r="D267" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="E267" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F267" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
@@ -6140,11 +6143,14 @@
       <c r="C268" t="s">
         <v>332</v>
       </c>
+      <c r="D268" t="s">
+        <v>333</v>
+      </c>
       <c r="E268" t="s">
         <v>11</v>
       </c>
       <c r="F268" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
@@ -6161,7 +6167,7 @@
         <v>11</v>
       </c>
       <c r="F269" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
@@ -6175,10 +6181,10 @@
         <v>332</v>
       </c>
       <c r="E270" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F270" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
@@ -6192,10 +6198,10 @@
         <v>332</v>
       </c>
       <c r="E271" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F271" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
@@ -6209,10 +6215,10 @@
         <v>332</v>
       </c>
       <c r="E272" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F272" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
@@ -6226,10 +6232,10 @@
         <v>332</v>
       </c>
       <c r="E273" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F273" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
@@ -6243,10 +6249,10 @@
         <v>332</v>
       </c>
       <c r="E274" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F274" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
@@ -6260,10 +6266,10 @@
         <v>332</v>
       </c>
       <c r="E275" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F275" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
@@ -6277,10 +6283,10 @@
         <v>332</v>
       </c>
       <c r="E276" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F276" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
@@ -6294,10 +6300,10 @@
         <v>332</v>
       </c>
       <c r="E277" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F277" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
@@ -6311,30 +6317,27 @@
         <v>332</v>
       </c>
       <c r="E278" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F278" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="B279" t="s">
         <v>301</v>
       </c>
       <c r="C279" t="s">
-        <v>347</v>
-      </c>
-      <c r="D279" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="E279" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F279" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
@@ -6347,11 +6350,14 @@
       <c r="C280" t="s">
         <v>347</v>
       </c>
+      <c r="D280" t="s">
+        <v>348</v>
+      </c>
       <c r="E280" t="s">
         <v>11</v>
       </c>
       <c r="F280" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
@@ -6365,10 +6371,10 @@
         <v>347</v>
       </c>
       <c r="E281" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F281" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
@@ -6382,10 +6388,10 @@
         <v>347</v>
       </c>
       <c r="E282" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F282" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
@@ -6402,7 +6408,7 @@
         <v>11</v>
       </c>
       <c r="F283" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
@@ -6416,10 +6422,10 @@
         <v>347</v>
       </c>
       <c r="E284" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F284" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
@@ -6433,10 +6439,10 @@
         <v>347</v>
       </c>
       <c r="E285" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F285" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
@@ -6450,10 +6456,10 @@
         <v>347</v>
       </c>
       <c r="E286" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F286" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
@@ -6467,10 +6473,10 @@
         <v>347</v>
       </c>
       <c r="E287" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F287" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
@@ -6484,10 +6490,10 @@
         <v>347</v>
       </c>
       <c r="E288" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F288" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
@@ -6501,10 +6507,10 @@
         <v>347</v>
       </c>
       <c r="E289" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F289" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
@@ -6518,30 +6524,27 @@
         <v>347</v>
       </c>
       <c r="E290" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F290" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="B291" t="s">
         <v>301</v>
       </c>
       <c r="C291" t="s">
-        <v>362</v>
-      </c>
-      <c r="D291" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="E291" t="s">
         <v>11</v>
       </c>
       <c r="F291" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
@@ -6554,11 +6557,14 @@
       <c r="C292" t="s">
         <v>362</v>
       </c>
+      <c r="D292" t="s">
+        <v>363</v>
+      </c>
       <c r="E292" t="s">
         <v>11</v>
       </c>
       <c r="F292" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
@@ -6572,10 +6578,10 @@
         <v>362</v>
       </c>
       <c r="E293" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F293" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
@@ -6589,10 +6595,10 @@
         <v>362</v>
       </c>
       <c r="E294" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F294" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
@@ -6609,7 +6615,7 @@
         <v>11</v>
       </c>
       <c r="F295" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
@@ -6623,10 +6629,10 @@
         <v>362</v>
       </c>
       <c r="E296" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F296" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
@@ -6640,10 +6646,10 @@
         <v>362</v>
       </c>
       <c r="E297" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F297" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
@@ -6657,10 +6663,10 @@
         <v>362</v>
       </c>
       <c r="E298" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F298" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
@@ -6674,10 +6680,10 @@
         <v>362</v>
       </c>
       <c r="E299" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F299" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
@@ -6691,10 +6697,10 @@
         <v>362</v>
       </c>
       <c r="E300" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F300" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
@@ -6708,10 +6714,10 @@
         <v>362</v>
       </c>
       <c r="E301" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F301" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
@@ -6725,35 +6731,32 @@
         <v>362</v>
       </c>
       <c r="E302" t="s">
+        <v>17</v>
+      </c>
+      <c r="F302" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>361</v>
+      </c>
+      <c r="B303" t="s">
+        <v>301</v>
+      </c>
+      <c r="C303" t="s">
+        <v>362</v>
+      </c>
+      <c r="E303" t="s">
         <v>21</v>
       </c>
-      <c r="F302" t="s">
+      <c r="F303" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B304" t="s">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B305" t="s">
         <v>376</v>
-      </c>
-    </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A306" t="s">
-        <v>377</v>
-      </c>
-      <c r="B306" t="s">
-        <v>378</v>
-      </c>
-      <c r="C306" t="s">
-        <v>379</v>
-      </c>
-      <c r="D306" t="s">
-        <v>380</v>
-      </c>
-      <c r="E306" t="s">
-        <v>19</v>
-      </c>
-      <c r="F306" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
@@ -6766,11 +6769,14 @@
       <c r="C307" t="s">
         <v>379</v>
       </c>
+      <c r="D307" t="s">
+        <v>380</v>
+      </c>
       <c r="E307" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F307" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
@@ -6787,7 +6793,7 @@
         <v>11</v>
       </c>
       <c r="F308" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
@@ -6801,10 +6807,10 @@
         <v>379</v>
       </c>
       <c r="E309" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F309" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
@@ -6818,10 +6824,10 @@
         <v>379</v>
       </c>
       <c r="E310" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F310" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
@@ -6835,10 +6841,10 @@
         <v>379</v>
       </c>
       <c r="E311" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F311" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
@@ -6855,7 +6861,7 @@
         <v>19</v>
       </c>
       <c r="F312" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
@@ -6869,10 +6875,10 @@
         <v>379</v>
       </c>
       <c r="E313" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F313" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
@@ -6886,10 +6892,10 @@
         <v>379</v>
       </c>
       <c r="E314" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F314" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
@@ -6903,10 +6909,10 @@
         <v>379</v>
       </c>
       <c r="E315" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F315" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
@@ -6920,10 +6926,10 @@
         <v>379</v>
       </c>
       <c r="E316" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F316" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
@@ -6937,30 +6943,27 @@
         <v>379</v>
       </c>
       <c r="E317" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F317" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="B318" t="s">
         <v>378</v>
       </c>
       <c r="C318" t="s">
-        <v>394</v>
-      </c>
-      <c r="D318" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="E318" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F318" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
@@ -6973,11 +6976,14 @@
       <c r="C319" t="s">
         <v>394</v>
       </c>
+      <c r="D319" t="s">
+        <v>395</v>
+      </c>
       <c r="E319" t="s">
         <v>21</v>
       </c>
       <c r="F319" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
@@ -6991,10 +6997,10 @@
         <v>394</v>
       </c>
       <c r="E320" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F320" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
@@ -7011,7 +7017,7 @@
         <v>11</v>
       </c>
       <c r="F321" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
@@ -7025,10 +7031,10 @@
         <v>394</v>
       </c>
       <c r="E322" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F322" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
@@ -7042,10 +7048,10 @@
         <v>394</v>
       </c>
       <c r="E323" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F323" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
@@ -7059,10 +7065,10 @@
         <v>394</v>
       </c>
       <c r="E324" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F324" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
@@ -7076,10 +7082,10 @@
         <v>394</v>
       </c>
       <c r="E325" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F325" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
@@ -7093,10 +7099,10 @@
         <v>394</v>
       </c>
       <c r="E326" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F326" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
@@ -7110,10 +7116,10 @@
         <v>394</v>
       </c>
       <c r="E327" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F327" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
@@ -7130,7 +7136,7 @@
         <v>11</v>
       </c>
       <c r="F328" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
@@ -7144,30 +7150,27 @@
         <v>394</v>
       </c>
       <c r="E329" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F329" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="B330" t="s">
         <v>378</v>
       </c>
       <c r="C330" t="s">
-        <v>409</v>
-      </c>
-      <c r="D330" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="E330" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F330" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
@@ -7180,11 +7183,14 @@
       <c r="C331" t="s">
         <v>409</v>
       </c>
+      <c r="D331" t="s">
+        <v>410</v>
+      </c>
       <c r="E331" t="s">
         <v>21</v>
       </c>
       <c r="F331" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
@@ -7198,10 +7204,10 @@
         <v>409</v>
       </c>
       <c r="E332" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F332" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
@@ -7215,10 +7221,10 @@
         <v>409</v>
       </c>
       <c r="E333" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F333" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
@@ -7232,10 +7238,10 @@
         <v>409</v>
       </c>
       <c r="E334" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F334" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
@@ -7249,10 +7255,10 @@
         <v>409</v>
       </c>
       <c r="E335" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F335" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
@@ -7266,10 +7272,10 @@
         <v>409</v>
       </c>
       <c r="E336" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F336" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.25">
@@ -7283,10 +7289,10 @@
         <v>409</v>
       </c>
       <c r="E337" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F337" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.25">
@@ -7300,10 +7306,10 @@
         <v>409</v>
       </c>
       <c r="E338" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F338" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.25">
@@ -7317,10 +7323,10 @@
         <v>409</v>
       </c>
       <c r="E339" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F339" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.25">
@@ -7334,10 +7340,10 @@
         <v>409</v>
       </c>
       <c r="E340" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F340" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.25">
@@ -7351,35 +7357,32 @@
         <v>409</v>
       </c>
       <c r="E341" t="s">
+        <v>19</v>
+      </c>
+      <c r="F341" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>408</v>
+      </c>
+      <c r="B342" t="s">
+        <v>378</v>
+      </c>
+      <c r="C342" t="s">
+        <v>409</v>
+      </c>
+      <c r="E342" t="s">
         <v>17</v>
       </c>
-      <c r="F341" t="s">
+      <c r="F342" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B343" t="s">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B344" t="s">
         <v>423</v>
-      </c>
-    </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A345" t="s">
-        <v>424</v>
-      </c>
-      <c r="B345" t="s">
-        <v>425</v>
-      </c>
-      <c r="C345" t="s">
-        <v>426</v>
-      </c>
-      <c r="D345" t="s">
-        <v>427</v>
-      </c>
-      <c r="E345" t="s">
-        <v>19</v>
-      </c>
-      <c r="F345" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
@@ -7392,11 +7395,14 @@
       <c r="C346" t="s">
         <v>426</v>
       </c>
+      <c r="D346" t="s">
+        <v>427</v>
+      </c>
       <c r="E346" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F346" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
@@ -7413,7 +7419,7 @@
         <v>11</v>
       </c>
       <c r="F347" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.25">
@@ -7427,10 +7433,10 @@
         <v>426</v>
       </c>
       <c r="E348" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F348" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.25">
@@ -7444,10 +7450,10 @@
         <v>426</v>
       </c>
       <c r="E349" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F349" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.25">
@@ -7461,10 +7467,10 @@
         <v>426</v>
       </c>
       <c r="E350" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F350" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
@@ -7478,10 +7484,10 @@
         <v>426</v>
       </c>
       <c r="E351" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F351" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.25">
@@ -7495,10 +7501,10 @@
         <v>426</v>
       </c>
       <c r="E352" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F352" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.25">
@@ -7515,7 +7521,7 @@
         <v>11</v>
       </c>
       <c r="F353" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.25">
@@ -7529,10 +7535,10 @@
         <v>426</v>
       </c>
       <c r="E354" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F354" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.25">
@@ -7546,10 +7552,10 @@
         <v>426</v>
       </c>
       <c r="E355" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F355" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
@@ -7566,11 +7572,28 @@
         <v>19</v>
       </c>
       <c r="F356" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>424</v>
+      </c>
+      <c r="B357" t="s">
+        <v>425</v>
+      </c>
+      <c r="C357" t="s">
+        <v>426</v>
+      </c>
+      <c r="E357" t="s">
+        <v>19</v>
+      </c>
+      <c r="F357" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F360" s="1"/>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F361" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
